--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>First test group</t>
+          <t>First test group 4</t>
         </is>
       </c>
     </row>
@@ -467,6 +467,30 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>Second test group 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>testing 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test 4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>testing 4</t>
         </is>
       </c>
     </row>
@@ -481,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +556,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>user 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -541,13 +565,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -599,7 +623,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
         <v>180</v>
@@ -639,6 +663,122 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>test2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>170</v>
+      </c>
+      <c r="F6" t="n">
+        <v>56</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>170</v>
+      </c>
+      <c r="F7" t="n">
+        <v>56</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>27</v>
+      </c>
+      <c r="E8" t="n">
+        <v>160</v>
+      </c>
+      <c r="F8" t="n">
+        <v>52</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>43</v>
+      </c>
+      <c r="E9" t="n">
+        <v>172</v>
+      </c>
+      <c r="F9" t="n">
+        <v>76</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>test 4</t>
         </is>
       </c>
     </row>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -485,14 +485,10 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>test 4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>testing 4</t>
-        </is>
-      </c>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -505,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,35 +749,6 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>park</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>43</v>
-      </c>
-      <c r="E9" t="n">
-        <v>172</v>
-      </c>
-      <c r="F9" t="n">
-        <v>76</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>test 4</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -1,121 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seon/Desktop/CambodiaNAS/data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AC4E23-451C-F041-B105-04F8347570CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Group" sheetId="1" r:id="rId1"/>
-    <sheet name="Users" sheetId="2" r:id="rId2"/>
+    <sheet name="Group" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>First test group 4</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>Second test group 4</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>testing 3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>user 3</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -130,43 +47,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -454,165 +421,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>First test group 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Second test group 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>testing 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>test4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>test5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>height</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>user 3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>95</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Jane</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>165</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>60</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>170</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>56</v>
       </c>
-      <c r="G4" t="s">
-        <v>2</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,22 +481,6 @@
           <t>testing 3</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>test5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -597,14 +581,20 @@
           <t>female</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>165</v>
-      </c>
-      <c r="F3" t="n">
-        <v>60</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,28 +573,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jane</t>
+          <t>user 1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>165</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>18</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -626,6 +620,35 @@
         <v>56</v>
       </c>
       <c r="G4" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>test1</t>
         </is>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -540,11 +540,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>user 3</t>
+          <t>user 1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -569,11 +569,11 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>user 1</t>
+          <t>Park</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -598,11 +598,11 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Park</t>
+          <t>user 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="F4" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -626,8 +626,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -639,18 +641,24 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>95</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>test3</t>
         </is>
       </c>
     </row>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,10 +626,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -641,22 +639,53 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>test3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>95</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>test3</t>
         </is>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,72 +625,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>user 1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>6</v>
-      </c>
-      <c r="E5" t="n">
-        <v>95</v>
-      </c>
-      <c r="F5" t="n">
-        <v>18</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>user 1</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>test3</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +625,209 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>18</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>95</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>user 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>user 1</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -823,6 +823,43 @@
         <v>18</v>
       </c>
       <c r="G11" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>LEE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>test1</t>
         </is>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -829,10 +829,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -844,22 +842,53 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>156</v>
+      </c>
+      <c r="F12" t="n">
+        <v>51</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>test1</t>
         </is>

--- a/data/group_user_data.xlsx
+++ b/data/group_user_data.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,14 @@
           <t>testing 3</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -493,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -858,10 +866,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -873,24 +879,117 @@
           <t>male</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="n">
+        <v>53</v>
+      </c>
+      <c r="E13" t="n">
+        <v>170</v>
+      </c>
+      <c r="F13" t="n">
+        <v>72</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>testuser01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Park</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>53</v>
+      </c>
+      <c r="E14" t="n">
+        <v>170</v>
+      </c>
+      <c r="F14" t="n">
+        <v>72</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>testuser02</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Lee</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>148</v>
+      </c>
+      <c r="F15" t="n">
+        <v>56</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>TEST</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>testuser03</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>female</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>163.8</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>53</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>test1</t>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>TEST</t>
         </is>
       </c>
     </row>
